--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopal\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35985CDD-EAD2-45C3-8CFD-E725C7AC07AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5055EFA-556F-47BE-A645-053F4AF21238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -557,7 +557,7 @@
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopal\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5055EFA-556F-47BE-A645-053F4AF21238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8DAA7-FEB3-43CA-8ECF-72513A153E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>No. of Test Case</t>
-  </si>
-  <si>
-    <t>FETCHTICKET1</t>
   </si>
   <si>
     <t>pqrs</t>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>DELETETICKET13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:E1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -430,16 +430,16 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="3">
         <v>1111.2</v>
@@ -447,16 +447,16 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="3">
         <v>250</v>
@@ -464,16 +464,16 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="3">
         <v>250</v>
@@ -481,16 +481,16 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="E5" s="3">
         <v>250</v>
@@ -498,16 +498,16 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <v>188</v>
@@ -523,36 +523,36 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
@@ -564,36 +564,36 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
+      <c r="A12" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
+      <c r="A13" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
+      <c r="A14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1">
@@ -605,22 +605,22 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
+      <c r="A16" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
+      <c r="A17" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopal\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8DAA7-FEB3-43CA-8ECF-72513A153E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D09448D-C517-4A74-B341-D7BB06A14D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,36 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>No. of Test Case</t>
   </si>
   <si>
-    <t>pqrs</t>
-  </si>
-  <si>
-    <t>mnop</t>
+    <t>FETCHTICKET1</t>
   </si>
   <si>
     <t>FETCHTICKET2</t>
-  </si>
-  <si>
-    <t>ggggg</t>
-  </si>
-  <si>
-    <t>hhhh</t>
-  </si>
-  <si>
-    <t>FETCHTICKET3</t>
-  </si>
-  <si>
-    <t>FETCHTICKET4</t>
-  </si>
-  <si>
-    <t>FETCHTICKET5</t>
-  </si>
-  <si>
-    <t>yyyyy</t>
   </si>
   <si>
     <t>BOOKTICKET6</t>
@@ -104,23 +83,26 @@
     <t>UPDATETICKET10</t>
   </si>
   <si>
-    <t>UPDATETICKET11</t>
-  </si>
-  <si>
     <t>DELETETICKET12</t>
   </si>
   <si>
     <t>DELETETICKET13</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Cochin</t>
+  </si>
+  <si>
+    <t>Chennai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,11 +118,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -175,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -187,10 +164,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1006"/>
+  <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -421,7 +395,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1">
       <c r="A1" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -430,217 +404,153 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
-        <v>1111.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>9</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>250</v>
+        <v>71.835099999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>250</v>
-      </c>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A7" s="1">
-        <v>3</v>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
+      <c r="A8" s="1">
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1611,10 +1521,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
     <row r="1002" ht="14.25" customHeight="1"/>
-    <row r="1003" ht="14.25" customHeight="1"/>
-    <row r="1004" ht="14.25" customHeight="1"/>
-    <row r="1005" ht="14.25" customHeight="1"/>
-    <row r="1006" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D09448D-C517-4A74-B341-D7BB06A14D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62DE7A4-B30B-40FC-A900-138F79143462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>No. of Test Case</t>
   </si>
@@ -383,7 +383,7 @@
   <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -490,22 +490,22 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62DE7A4-B30B-40FC-A900-138F79143462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF66F0AD-6977-4F8A-897D-4B133E64C29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>No. of Test Case</t>
   </si>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>Chennai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "username": "user676767",
+    "fromplace": "TVM",
+    "toplace": "BGRLR",
+    "email": "user676767@gmail.com",
+    "price": 1245.0,
+    "traveldate": null,
+    "pincode": "321433"
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "username": "user676767",
+    "fromplace": "Chennai",
+    "toplace": "Cochin",
+    "email": "user676767@gmail.com",
+    "price": 6734.0,
+    "traveldate": null,
+    "pincode": "321456"
+}
+</t>
   </si>
 </sst>
 </file>
@@ -383,7 +407,7 @@
   <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -407,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -424,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
@@ -490,22 +514,22 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>6</v>
+      <c r="B9" s="3">
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
-        <v>7</v>
+      <c r="B10" s="3">
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">
@@ -521,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" customHeight="1">
@@ -529,7 +553,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF66F0AD-6977-4F8A-897D-4B133E64C29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23503FA2-8004-41DD-8322-E759D2A28947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>No. of Test Case</t>
   </si>
@@ -89,9 +89,6 @@
     <t>DELETETICKET13</t>
   </si>
   <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
     <t>Cochin</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
     "pincode": "321456"
 }
 </t>
+  </si>
+  <si>
+    <t>TVM</t>
+  </si>
+  <si>
+    <t>BGLR</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -431,16 +434,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3">
-        <v>8782</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.2" customHeight="1">
@@ -448,16 +451,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3">
-        <v>71.835099999999997</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1">
@@ -518,7 +521,7 @@
         <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1">
@@ -529,7 +532,7 @@
         <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1">

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23503FA2-8004-41DD-8322-E759D2A28947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B0688D-EACA-4CB6-97C5-2C41E5E33AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
